--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liceo Compu-Market\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liceo Compu-Market\Desktop\refuerzo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -645,7 +645,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="_([$Q-100A]* #,##0.00_);_([$Q-100A]* \(#,##0.00\);_([$Q-100A]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$Q-100A]* #,##0.00_);_([$Q-100A]* \(#,##0.00\);_([$Q-100A]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -736,7 +736,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2752,7 +2752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2800,11 +2800,11 @@
       </c>
       <c r="E2" s="9">
         <f ca="1">RANDBETWEEN(2700,5000)</f>
-        <v>3846</v>
+        <v>4433</v>
       </c>
       <c r="F2" s="8">
         <f ca="1">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
-        <v>43581</v>
+        <v>43523</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2822,11 +2822,11 @@
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(2700,5000)</f>
-        <v>4251</v>
+        <v>4057</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" ref="F3:F66" ca="1" si="1">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
-        <v>43542</v>
+        <v>43499</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2844,11 +2844,11 @@
       </c>
       <c r="E4" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4662</v>
+        <v>3497</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43541</v>
+        <v>43542</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2866,11 +2866,11 @@
       </c>
       <c r="E5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4320</v>
+        <v>3274</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43488</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2888,11 +2888,11 @@
       </c>
       <c r="E6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4944</v>
+        <v>3513</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43534</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2910,11 +2910,11 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4515</v>
+        <v>2996</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43564</v>
+        <v>43567</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2932,11 +2932,11 @@
       </c>
       <c r="E8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3710</v>
+        <v>3723</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43488</v>
+        <v>43517</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,11 +2954,11 @@
       </c>
       <c r="E9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4447</v>
+        <v>3969</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43509</v>
+        <v>43560</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,11 +2976,11 @@
       </c>
       <c r="E10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3796</v>
+        <v>2994</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43582</v>
+        <v>43511</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2998,11 +2998,11 @@
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4417</v>
+        <v>4005</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43520</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3020,11 +3020,11 @@
       </c>
       <c r="E12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3013</v>
+        <v>4566</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43551</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3042,11 +3042,11 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4025</v>
+        <v>4205</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43526</v>
+        <v>43567</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,11 +3064,11 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3306</v>
+        <v>3532</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43533</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3086,11 +3086,11 @@
       </c>
       <c r="E15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3304</v>
+        <v>4346</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43523</v>
+        <v>43525</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3108,11 +3108,11 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4748</v>
+        <v>3903</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43476</v>
+        <v>43517</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,11 +3130,11 @@
       </c>
       <c r="E17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4639</v>
+        <v>3693</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43585</v>
+        <v>43577</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3152,11 +3152,11 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4052</v>
+        <v>3067</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43545</v>
+        <v>43482</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3174,11 +3174,11 @@
       </c>
       <c r="E19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3192</v>
+        <v>4860</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43479</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3196,11 +3196,11 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3812</v>
+        <v>3851</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43554</v>
+        <v>43577</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3218,11 +3218,11 @@
       </c>
       <c r="E21" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4572</v>
+        <v>3704</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43488</v>
+        <v>43578</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3240,11 +3240,11 @@
       </c>
       <c r="E22" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4761</v>
+        <v>3861</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43554</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3262,11 +3262,11 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4107</v>
+        <v>3109</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43489</v>
+        <v>43584</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3284,11 +3284,11 @@
       </c>
       <c r="E24" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3849</v>
+        <v>3407</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43535</v>
+        <v>43520</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3306,11 +3306,11 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3361</v>
+        <v>4489</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43548</v>
+        <v>43523</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3328,11 +3328,11 @@
       </c>
       <c r="E26" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3724</v>
+        <v>4387</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43574</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,11 +3350,11 @@
       </c>
       <c r="E27" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3266</v>
+        <v>4324</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43584</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3372,11 +3372,11 @@
       </c>
       <c r="E28" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3896</v>
+        <v>2904</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43497</v>
+        <v>43576</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3394,11 +3394,11 @@
       </c>
       <c r="E29" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4826</v>
+        <v>3980</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43514</v>
+        <v>43510</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3416,11 +3416,11 @@
       </c>
       <c r="E30" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>2747</v>
+        <v>3740</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43479</v>
+        <v>43574</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3438,11 +3438,11 @@
       </c>
       <c r="E31" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3249</v>
+        <v>4680</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43560</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3460,11 +3460,11 @@
       </c>
       <c r="E32" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4280</v>
+        <v>4275</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43517</v>
+        <v>43572</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3482,11 +3482,11 @@
       </c>
       <c r="E33" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3936</v>
+        <v>4931</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43537</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -3504,11 +3504,11 @@
       </c>
       <c r="E34" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4112</v>
+        <v>3736</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43544</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3526,11 +3526,11 @@
       </c>
       <c r="E35" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3016</v>
+        <v>4698</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43562</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3548,11 +3548,11 @@
       </c>
       <c r="E36" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4901</v>
+        <v>3613</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43497</v>
+        <v>43507</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3570,11 +3570,11 @@
       </c>
       <c r="E37" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3559</v>
+        <v>3977</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43584</v>
+        <v>43517</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3592,11 +3592,11 @@
       </c>
       <c r="E38" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4419</v>
+        <v>4685</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43540</v>
+        <v>43498</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3614,11 +3614,11 @@
       </c>
       <c r="E39" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4122</v>
+        <v>3487</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43482</v>
+        <v>43504</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -3636,11 +3636,11 @@
       </c>
       <c r="E40" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3372</v>
+        <v>3234</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43560</v>
+        <v>43510</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,11 +3658,11 @@
       </c>
       <c r="E41" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3541</v>
+        <v>3468</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43524</v>
+        <v>43541</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3680,11 +3680,11 @@
       </c>
       <c r="E42" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3044</v>
+        <v>3512</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43573</v>
+        <v>43501</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3702,11 +3702,11 @@
       </c>
       <c r="E43" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4901</v>
+        <v>4467</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43545</v>
+        <v>43573</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,11 +3724,11 @@
       </c>
       <c r="E44" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3251</v>
+        <v>3088</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43539</v>
+        <v>43499</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3746,11 +3746,11 @@
       </c>
       <c r="E45" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3782</v>
+        <v>3486</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43559</v>
+        <v>43478</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3768,11 +3768,11 @@
       </c>
       <c r="E46" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4447</v>
+        <v>2771</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43555</v>
+        <v>43511</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="E47" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4477</v>
+        <v>3696</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43514</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3812,11 +3812,11 @@
       </c>
       <c r="E48" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3021</v>
+        <v>4857</v>
       </c>
       <c r="F48" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43537</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3834,11 +3834,11 @@
       </c>
       <c r="E49" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4805</v>
+        <v>2734</v>
       </c>
       <c r="F49" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43503</v>
+        <v>43479</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3856,11 +3856,11 @@
       </c>
       <c r="E50" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>2780</v>
+        <v>3180</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43554</v>
+        <v>43538</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3878,11 +3878,11 @@
       </c>
       <c r="E51" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4111</v>
+        <v>3515</v>
       </c>
       <c r="F51" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43523</v>
+        <v>43568</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3900,11 +3900,11 @@
       </c>
       <c r="E52" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3366</v>
+        <v>3798</v>
       </c>
       <c r="F52" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43504</v>
+        <v>43587</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -3922,11 +3922,11 @@
       </c>
       <c r="E53" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4243</v>
+        <v>3889</v>
       </c>
       <c r="F53" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43504</v>
+        <v>43584</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3944,11 +3944,11 @@
       </c>
       <c r="E54" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4552</v>
+        <v>3191</v>
       </c>
       <c r="F54" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43476</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3966,11 +3966,11 @@
       </c>
       <c r="E55" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3858</v>
+        <v>3933</v>
       </c>
       <c r="F55" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43586</v>
+        <v>43512</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3988,11 +3988,11 @@
       </c>
       <c r="E56" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4622</v>
+        <v>3605</v>
       </c>
       <c r="F56" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43496</v>
+        <v>43533</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4010,11 +4010,11 @@
       </c>
       <c r="E57" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4502</v>
+        <v>2768</v>
       </c>
       <c r="F57" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43589</v>
+        <v>43567</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4032,11 +4032,11 @@
       </c>
       <c r="E58" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3838</v>
+        <v>3520</v>
       </c>
       <c r="F58" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43534</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="E59" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>2745</v>
+        <v>2823</v>
       </c>
       <c r="F59" s="8">
         <f t="shared" ca="1" si="1"/>
@@ -4076,11 +4076,11 @@
       </c>
       <c r="E60" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4059</v>
+        <v>3510</v>
       </c>
       <c r="F60" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43566</v>
+        <v>43507</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4098,11 +4098,11 @@
       </c>
       <c r="E61" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4138</v>
+        <v>2846</v>
       </c>
       <c r="F61" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43577</v>
+        <v>43554</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4120,11 +4120,11 @@
       </c>
       <c r="E62" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4031</v>
+        <v>3606</v>
       </c>
       <c r="F62" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43512</v>
+        <v>43539</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4142,11 +4142,11 @@
       </c>
       <c r="E63" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4525</v>
+        <v>3383</v>
       </c>
       <c r="F63" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43530</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4164,11 +4164,11 @@
       </c>
       <c r="E64" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4891</v>
+        <v>3362</v>
       </c>
       <c r="F64" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43535</v>
+        <v>43526</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4186,11 +4186,11 @@
       </c>
       <c r="E65" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4476</v>
+        <v>4807</v>
       </c>
       <c r="F65" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43510</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4208,11 +4208,11 @@
       </c>
       <c r="E66" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>3664</v>
+        <v>2916</v>
       </c>
       <c r="F66" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43508</v>
+        <v>43558</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4230,11 +4230,11 @@
       </c>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E101" ca="1" si="2">RANDBETWEEN(2700,5000)</f>
-        <v>3555</v>
+        <v>4802</v>
       </c>
       <c r="F67" s="8">
         <f t="shared" ref="F67:F101" ca="1" si="3">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
-        <v>43488</v>
+        <v>43501</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4252,11 +4252,11 @@
       </c>
       <c r="E68" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>2910</v>
+        <v>3074</v>
       </c>
       <c r="F68" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43575</v>
+        <v>43485</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4274,11 +4274,11 @@
       </c>
       <c r="E69" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3951</v>
+        <v>4648</v>
       </c>
       <c r="F69" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43545</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4296,11 +4296,11 @@
       </c>
       <c r="E70" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3783</v>
+        <v>3682</v>
       </c>
       <c r="F70" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43491</v>
+        <v>43483</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4318,11 +4318,11 @@
       </c>
       <c r="E71" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4436</v>
+        <v>3817</v>
       </c>
       <c r="F71" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43533</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4340,11 +4340,11 @@
       </c>
       <c r="E72" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4762</v>
+        <v>3348</v>
       </c>
       <c r="F72" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43493</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4362,11 +4362,11 @@
       </c>
       <c r="E73" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3508</v>
+        <v>2814</v>
       </c>
       <c r="F73" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43568</v>
+        <v>43543</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,11 +4384,11 @@
       </c>
       <c r="E74" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4172</v>
+        <v>2704</v>
       </c>
       <c r="F74" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43565</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4406,11 +4406,11 @@
       </c>
       <c r="E75" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3231</v>
+        <v>3091</v>
       </c>
       <c r="F75" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43561</v>
+        <v>43553</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4428,11 +4428,11 @@
       </c>
       <c r="E76" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4294</v>
+        <v>3882</v>
       </c>
       <c r="F76" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43508</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4450,11 +4450,11 @@
       </c>
       <c r="E77" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3536</v>
+        <v>4144</v>
       </c>
       <c r="F77" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43560</v>
+        <v>43516</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -4472,11 +4472,11 @@
       </c>
       <c r="E78" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4672</v>
+        <v>3006</v>
       </c>
       <c r="F78" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43551</v>
+        <v>43520</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -4494,11 +4494,11 @@
       </c>
       <c r="E79" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4317</v>
+        <v>4166</v>
       </c>
       <c r="F79" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43483</v>
+        <v>43517</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4516,11 +4516,11 @@
       </c>
       <c r="E80" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>2894</v>
+        <v>4656</v>
       </c>
       <c r="F80" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43533</v>
+        <v>43576</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4538,11 +4538,11 @@
       </c>
       <c r="E81" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4617</v>
+        <v>4826</v>
       </c>
       <c r="F81" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43516</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -4560,11 +4560,11 @@
       </c>
       <c r="E82" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4789</v>
+        <v>3670</v>
       </c>
       <c r="F82" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43542</v>
+        <v>43540</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -4582,11 +4582,11 @@
       </c>
       <c r="E83" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3440</v>
+        <v>4442</v>
       </c>
       <c r="F83" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43491</v>
+        <v>43486</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -4604,11 +4604,11 @@
       </c>
       <c r="E84" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3583</v>
+        <v>4022</v>
       </c>
       <c r="F84" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43545</v>
+        <v>43566</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4626,11 +4626,11 @@
       </c>
       <c r="E85" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4847</v>
+        <v>3773</v>
       </c>
       <c r="F85" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43528</v>
+        <v>43508</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -4648,11 +4648,11 @@
       </c>
       <c r="E86" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4164</v>
+        <v>2745</v>
       </c>
       <c r="F86" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43541</v>
+        <v>43496</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4670,11 +4670,11 @@
       </c>
       <c r="E87" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4368</v>
+        <v>4979</v>
       </c>
       <c r="F87" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43521</v>
+        <v>43493</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4692,11 +4692,11 @@
       </c>
       <c r="E88" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3597</v>
+        <v>4878</v>
       </c>
       <c r="F88" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43538</v>
+        <v>43481</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4714,11 +4714,11 @@
       </c>
       <c r="E89" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3136</v>
+        <v>3020</v>
       </c>
       <c r="F89" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43568</v>
+        <v>43508</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4736,11 +4736,11 @@
       </c>
       <c r="E90" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>2704</v>
+        <v>4824</v>
       </c>
       <c r="F90" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43588</v>
+        <v>43582</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4758,11 +4758,11 @@
       </c>
       <c r="E91" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4211</v>
+        <v>4536</v>
       </c>
       <c r="F91" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43514</v>
+        <v>43528</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4778,11 +4778,11 @@
       <c r="D92" s="6"/>
       <c r="E92" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4366</v>
+        <v>4517</v>
       </c>
       <c r="F92" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43518</v>
+        <v>43503</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4800,11 +4800,11 @@
       </c>
       <c r="E93" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4762</v>
+        <v>4992</v>
       </c>
       <c r="F93" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43491</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4822,11 +4822,11 @@
       </c>
       <c r="E94" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3345</v>
+        <v>2980</v>
       </c>
       <c r="F94" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43531</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,11 +4844,11 @@
       </c>
       <c r="E95" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>2934</v>
+        <v>4087</v>
       </c>
       <c r="F95" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43580</v>
+        <v>43572</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4866,11 +4866,11 @@
       </c>
       <c r="E96" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3937</v>
+        <v>2802</v>
       </c>
       <c r="F96" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43527</v>
+        <v>43507</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -4888,11 +4888,11 @@
       </c>
       <c r="E97" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3230</v>
+        <v>4495</v>
       </c>
       <c r="F97" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43507</v>
+        <v>43532</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
@@ -4910,11 +4910,11 @@
       </c>
       <c r="E98" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>2756</v>
+        <v>3732</v>
       </c>
       <c r="F98" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43564</v>
+        <v>43557</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4932,11 +4932,11 @@
       </c>
       <c r="E99" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3426</v>
+        <v>4068</v>
       </c>
       <c r="F99" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43533</v>
+        <v>43583</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4954,11 +4954,11 @@
       </c>
       <c r="E100" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>4089</v>
+        <v>4873</v>
       </c>
       <c r="F100" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43542</v>
+        <v>43490</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4976,11 +4976,11 @@
       </c>
       <c r="E101" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>2811</v>
+        <v>3208</v>
       </c>
       <c r="F101" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43528</v>
+        <v>43513</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
